--- a/data/trans_camb/P44_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P44_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-11,01</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-14,47</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,77</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-9,8</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,45</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-7,4</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-2,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,8</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-6,74</t>
+          <t>-1,89</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-3,11</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,81</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-27,23; 5,53</t>
+          <t>-5,75; 0,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,73; 3,53</t>
+          <t>-6,97; -1,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 16,36</t>
+          <t>-6,51; -0,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,9; 1,07</t>
+          <t>-7,98; -2,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,39; -0,6</t>
+          <t>-3,88; 0,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,44; 5,7</t>
+          <t>-4,92; -0,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-20,67; -1,39</t>
+          <t>-4,69; -0,94</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-23,08; -1,9</t>
+          <t>-5,73; -2,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-17,8; 4,34</t>
+          <t>-3,98; -0,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,09; -1,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; -1,12</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; -2,82</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-26,16%</t>
+          <t>-31,67%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,38%</t>
+          <t>-56,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,71%</t>
+          <t>-47,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,83%</t>
+          <t>-73,94%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-34,85%</t>
+          <t>-34,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,52%</t>
+          <t>-53,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-27,95%</t>
+          <t>-51,15%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-34,67%</t>
+          <t>-73,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-18,26%</t>
+          <t>-33,3%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-54,76%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-49,41%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-73,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-56,41; 16,67</t>
+          <t>-64,97; 16,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 11,38</t>
+          <t>-80,52; -18,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-53,14; 48,36</t>
+          <t>-75,76; 1,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,86; 4,52</t>
+          <t>-91,57; -35,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-60,38; 0,19</t>
+          <t>-59,24; 8,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-51,15; 22,02</t>
+          <t>-74,21; -19,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,05; -4,43</t>
+          <t>-71,16; -21,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -1,9</t>
+          <t>-86,82; -46,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-43,69; 14,2</t>
+          <t>-57,27; -4,8</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-71,72; -31,73</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-67,03; -20,7</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-86,95; -56,29</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,91</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-15,97</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-18,0</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-6,22</t>
+          <t>-6,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-9,39</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-14,25</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-6,52</t>
+          <t>-4,35</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-7,13</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-15,93</t>
+          <t>-1,5</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,08</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-4,39</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-24,05; 12,13</t>
+          <t>-5,53; 2,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 2,75</t>
+          <t>-7,98; -1,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-34,51; -0,59</t>
+          <t>-7,77; -1,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,7; 6,87</t>
+          <t>-9,62; -4,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 4,66</t>
+          <t>-4,64; 1,85</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,54; -1,43</t>
+          <t>-6,77; -1,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 4,92</t>
+          <t>-7,34; -1,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,29; -1,85</t>
+          <t>-9,79; -4,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-25,24; -5,39</t>
+          <t>-3,9; 0,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,17; -1,9</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; -2,3</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-8,92; -5,26</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>-22,64%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,84%</t>
+          <t>-61,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-43,78%</t>
+          <t>-59,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,45%</t>
+          <t>-88,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>-16,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-37,66%</t>
+          <t>-43,99%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,59%</t>
+          <t>-53,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-31,1%</t>
+          <t>-87,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-40,52%</t>
+          <t>-19,3%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-52,46%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-56,43%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-87,7%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-52,39; 36,91</t>
+          <t>-60,84; 39,67</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,05; 9,11</t>
+          <t>-84,1; -18,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-72,95; 1,35</t>
+          <t>-81,74; -17,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-44,41; 22,69</t>
+          <t>-96,94; -66,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 15,93</t>
+          <t>-46,16; 31,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,14; -2,73</t>
+          <t>-65,95; -11,91</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 15,02</t>
+          <t>-71,6; -17,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,35; -4,62</t>
+          <t>-94,99; -71,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,92; -15,15</t>
+          <t>-43,88; 13,12</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-68,95; -28,27</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-71,72; -34,12</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-93,78; -77,54</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-3,92</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-10,3</t>
+          <t>-2,27</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>-5,45</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-8,14</t>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-2,22</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,05</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 34,17</t>
+          <t>-4,68; 5,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-24,43; 38,68</t>
+          <t>-6,73; 1,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-32,67; 35,45</t>
+          <t>-8,28; -1,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,27; 20,49</t>
+          <t>-8,43; -1,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 24,14</t>
+          <t>-6,46; 4,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-29,61; 8,21</t>
+          <t>-7,67; 2,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,82; 19,16</t>
+          <t>-9,47; 0,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-13,3; 22,44</t>
+          <t>-10,42; -1,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-24,53; 5,54</t>
+          <t>-3,91; 3,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 0,9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; -1,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-7,71; -2,07</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,14%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>-49,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-41,24%</t>
+          <t>-90,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>-88,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>-12,86%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,85%</t>
+          <t>-31,91%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-58,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>-76,59%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-32,62%</t>
+          <t>-6,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-38,94%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-70,85%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-81,17%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-78,22; 349,05</t>
+          <t>-76,8; 310,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-85,6; 454,79</t>
+          <t>-94,4; 155,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 570,64</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,77; 128,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 136,98</t>
+          <t>-65,84; 107,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,89; 47,56</t>
+          <t>-73,56; 52,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 107,61</t>
+          <t>-87,58; 15,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,85; 140,69</t>
+          <t>-100,0; -10,51</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-76,24; 34,8</t>
+          <t>-53,94; 76,2</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-73,71; 27,15</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-89,37; -28,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-95,85; -42,04</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-7,04</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-3,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-10,07</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-6,76</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,5</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-10,78</t>
+          <t>-3,11</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-6,86</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-10,32</t>
+          <t>-5,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-10,65</t>
+          <t>-1,57</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-3,4</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,58</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-5,28</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 5,89</t>
+          <t>-3,62; 0,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-22,75; 1,07</t>
+          <t>-5,7; -1,97</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 4,18</t>
+          <t>-5,59; -1,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,45; 0,9</t>
+          <t>-7,33; -3,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-17,07; -0,84</t>
+          <t>-3,5; 0,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,52; -2,23</t>
+          <t>-4,82; -1,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-13,15; 0,41</t>
+          <t>-5,04; -2,14</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,32; -3,72</t>
+          <t>-6,81; -3,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-17,45; -2,63</t>
+          <t>-2,85; -0,1</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; -2,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-4,8; -2,46</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-6,46; -4,27</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-18,27%</t>
+          <t>-24,47%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-32,65%</t>
+          <t>-58,44%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-26,15%</t>
+          <t>-57,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,73%</t>
+          <t>-81,88%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-24,8%</t>
+          <t>-23,64%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-31,44%</t>
+          <t>-46,47%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-18,98%</t>
+          <t>-53,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-28,54%</t>
+          <t>-80,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-29,44%</t>
+          <t>-24,03%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-52,14%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-54,99%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-81,1%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 17,39</t>
+          <t>-49,1; 13,32</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 3,47</t>
+          <t>-73,63; -34,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,52; 12,67</t>
+          <t>-72,99; -28,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 2,85</t>
+          <t>-91,1; -66,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-44,62; -2,07</t>
+          <t>-46,0; 2,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,52; -6,46</t>
+          <t>-61,82; -23,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 1,34</t>
+          <t>-66,04; -36,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,76; -10,31</t>
+          <t>-87,79; -67,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,95; -7,46</t>
+          <t>-38,93; -1,66</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-63,96; -36,81</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-65,68; -40,82</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-87,53; -72,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
